--- a/hongming_backend/template/泓明提单_template.xlsx
+++ b/hongming_backend/template/泓明提单_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epiphony\PycharmProjects\self_improve\hongming_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942B9057-13A9-41F6-AAAD-E2D0B5544974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AC3E07-DEE7-4386-B199-7938AA9ADF75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="696" windowWidth="17280" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="696" windowWidth="17280" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>bill_number</t>
   </si>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>invoice_no</t>
+  </si>
+  <si>
+    <t>business_area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -408,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A25"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,6 +500,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
